--- a/E6-04_plasmid_list.xlsx
+++ b/E6-04_plasmid_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nusu-my.sharepoint.com/personal/biepcl_nus_edu_sg/Documents/EngBio Group/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\School Stuff\Sem 7\FYP\EBase + PBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="324" documentId="13_ncr:1_{EA2ED8FF-CE85-B340-829E-FE3F72FFE181}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BBD6AC74-AFD4-4A98-AA12-6FB661DF94DA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507A3810-380F-499D-A908-005A4D042EB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="660" windowWidth="24640" windowHeight="13640" firstSheet="6" activeTab="6" xr2:uid="{58E34AC4-5EED-F74C-B80A-9F20B709F1A2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{58E34AC4-5EED-F74C-B80A-9F20B709F1A2}"/>
   </bookViews>
   <sheets>
     <sheet name="FORMAT&amp; An example" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="ChengKai" sheetId="8" r:id="rId8"/>
     <sheet name="Mon" sheetId="4" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="483">
   <si>
     <t>Location</t>
   </si>
@@ -641,9 +641,6 @@
     <t>atgcgatgtttcgcttggtggtcgaatgggcaggtagccggatcaagcgtatgcagccgccgcattgcatcagccatgatggatactttctcggcaggagcaaggtgagatgacaggagatcctgccccggcacttcgcccaatagcagccagtcccttcccgcttcagtgacaacgtcgagcacagctgcgcaaggaacgcccgtcgtggccagccacgatagccgcgctgcctcgtcctgcagttcattcagggcaccggacaggtcggtcttgacaaaaagaaccgggcgcccctgcgctgacagccggaacacggcggcatcagagcagccgattgtctgttgtgcccagtcatagccgaatagcctctccacccaagcggccggagaacctgcgtgcaatccatcttgttcaatcatgcgaaacgatcctcatcctgtctcttgatcagatcatgatcccctgcgccatcagatccttggcggcaagaaagccatccagtttactttgcagggcttcccaaccttaccagagggcgccccagctggcaattccgacgtcttatgacaacttgacggctacatcattcactttttcttcacaaccggcacggaactcgctcgggctggccccggtgcattttttaaatacccgcgagaaatagagttgatcgtcaaaaccaacattgcgaccgacggtggcgataggcatccgggtggtgctcaaaagcagcttcgcctggctgatacgttggtcctcgcgccagcttaagacgctaatccctaactgctggcggaaaagatgtgacagacgcgacggcgacaagcaaacatgctgtgcgacgctggcgatatcaaaattgctgtctgccaggtgatcgctgatgtactgacaagcctcgcgtacccgattatccatcggtggatggagcgactcgttaatcgcttccatgcgccgcagtaacaattgctcaagcagatttatcgccagcagctccgaatagcgcccttccccttgcccggcgttaatgatttgcccaaacaggtcgctgaaatgcggctggtgcgcttcatccgggcgaaagaaccccgtattggcaaatattgacggccagttaagccattcatgccagtaggcgcgcggacgaaagtaaacccactggtgataccattcgcgagcctccggatgacgaccgtagtgatgaatctctcctggcgggaacagcaaaatatcacccggtcggcaaacaaattctcgtccctgatttttcaccaccccctgaccgcgaatggtgagattgagaatataacctttcattcccagcggtcggtcgataaaaaaatcgagataaccgttggcctcaatcggcgttaaacccgccaccagatgggcattaaacgagtatcccggcagcaggggatcattttgcgcttcagccatacttttcatactcccgccattcagagaagaaaccaattgtccatattgcatcagacattgccgtcactgcgtcttttactggctcttctcgctaaccaaaccggtaaccccgcttattaaaagcattctgtaacaaagcgggaccaaagccatgacaaaaacgcgtaacaaaagtgtctataatcacggcagaaaagtccacattgattatttgcacggcgtcacactttgctatgccatagcatttttatccataagattagcggattctacctgacgctttttatcgcaactctctactgtttctccatacccgtttttttgggaattcaaaagatctGGTAGCCTTTAGTCCATGTTGACAGGTAGCCTTTAGTCCATGTATAATTATGTCTAGAGAAAGAGGAGAAATACTAGATGGCGAGTAGCGAAGACGTTATCAAAGAGTTCATGCGTTTCAAAGTTCGTATGGAAGGTTCCGTTAACGGTCACGAGTTCGAAATCGAAGGTGAAGGTGAAGGTCGTCCGTACGAAGGTACCCAGACCGCTAAACTGAAAGTTACCAAAGGTGGTCCGCTGCCGTTCGCTTGGGACATCCTGTCCCCGCAGTTCCAGTACGGTTCCAAAGCTTACGTTAAACACCCGGCTGACATCCCGGACTACCTGAAACTGTCCTTCCCGGAAGGTTTCAAATGGGAACGTGTTATGAACTTCGAAGACGGTGGTGTTGTTACCGTTACCCAGGACTCCTCCCTGCAAGACGGTGAGTTCATCTACAAAGTTAAACTGCGTGGTACCAACTTCCCGTCCGACGGTCCGGTTATGCAGAAAAAAACCATGGGTTGGGAAGCTTCCACCGAACGTATGTACCCGGAAGACGGTGCTCTGAAAGGTGAAATCAAAATGCGTCTGAAACTGAAAGACGGTGGTCACTACGACGCTGAAGTTAAAACCACCTACATGGCTAAAAAACCGGTTCAGCTGCCGGGTGCTTACAAAACCGACATCAAACTGGACATCACCTCCCACAACGAAGACTACACCATCGTTGAACAGTACGAACGTGCTGAAGGTCGTCACTCCACCGGTGCTTAAggatccaaactcgagtaaggatctccaggcatcaaataaaacgaaaggctcagtcgaaagactgggcctttcgttttatctgttgtttgtcggtgaacgctctctactagagtcacactggctcaccttcgggtgggcctttctgcgtttatacctagggcgttcggctgcggcgagcggtatcagctcactcaaaggcggtaatacggttatccacagaatcaggggataacgcaggaaagaacatgtgagcaaaaggccagcaaaaggccaggaaccgtaaaaaggccgcgttgctggcgtttttccataggctccgcccccctgacgagcatcacaaaaatcgacgctcaagtcagaggtggcgaaacccgacaggactataaagataccaggcgtttccccctggaagctccctcgtgcgctctcctgttccgaccctgccgcttaccggatacctgtccgcctttctcccttcgggaagcgtggcgctttctcatagctcacgctgtaggtatctcagttcggtgtaggtcgttcgctccaagctgggctgtgtgcacgaaccccccgttcagcccgaccgctgcgccttatccggtaactatcgtcttgagtccaacccggtaagacacgacttatcgccactggcagcagccactggtaacaggattagcagagcgaggtatgtaggcggtgctacagagttcttgaagtggtggcctaactacggctacactagaaggacagtatttggtatctgcgctctgctgaagccagttaccttcggaaaaagagttggtagctcttgatccggcaaacaaaccaccgctggtagcggtggtttttttgtttgcaagcagcagattacgcgcagaaaaaaaggatctcaagaagatcctttgatcttttctacggggtctgacgctcagtggaacgaaaactcacgttaagggattttggtcatgactagtgcttggattctcaccaataaaaaacgcccggcggcaaccgagcgttctgaacaaatccagatggagttctgaggtcattactggatctatcaacaggagtccaagcgagctctcgaaccccagagtcccgctcagaagaactcgtcaagaaggcgatagaaggcgatgcgctgcgaatcgggagcggcgataccgtaaagcacgaggaagcggtcagcccattcgccgccaagctcttcagcaatatcacgggtagccaacgctatgtcctgatagcggtccgccacacccagccggccacagtcgatgaatccagaaaagcggccattttccaccatgatattcggcaagcaggcatcgccatgggtcacgacgagatcctcgccgtcgggcatgcgcgccttgagcctggcgaacagttcggctggcgcgagcccctgatgctcttcgtccagatcatcctgatcgacaagaccggcttccatccgagtacgtgctcgctcg</t>
   </si>
   <si>
-    <t>Other name/ Description</t>
-  </si>
-  <si>
     <t>pCold</t>
   </si>
   <si>
@@ -791,9 +788,6 @@
     <t>pOP1</t>
   </si>
   <si>
-    <t>pho1 (beliverdin producing plasmid)</t>
-  </si>
-  <si>
     <t>15A, Spc</t>
   </si>
   <si>
@@ -806,24 +800,15 @@
     <t>pOp6</t>
   </si>
   <si>
-    <t>pho1 with gRNA scaffold producing part</t>
-  </si>
-  <si>
     <t>gRNA+Scaffold</t>
   </si>
   <si>
     <t>pOP6A</t>
   </si>
   <si>
-    <t>pho1 with gRNA scaffold producing part, no Ter</t>
-  </si>
-  <si>
     <t>pOP2</t>
   </si>
   <si>
-    <t>production of dCas9</t>
-  </si>
-  <si>
     <t>gabDP2</t>
   </si>
   <si>
@@ -836,18 +821,12 @@
     <t>pOP3</t>
   </si>
   <si>
-    <t>production of split dCas9</t>
-  </si>
-  <si>
     <t>NCas9-L-BphP1-QPAS1-L-CCas9 (L=GSAGSAAGSGEF, operon)</t>
   </si>
   <si>
     <t>pOP3S</t>
   </si>
   <si>
-    <t>production of split dCas9 (control)</t>
-  </si>
-  <si>
     <t>NCas9-L-BphP1del1.5kb-QPAS1-L-CCas9 (L=GSAGSAAGSGEF, operon)</t>
   </si>
   <si>
@@ -857,24 +836,15 @@
     <t>pOP4</t>
   </si>
   <si>
-    <t>production of gRNA &amp; GFP</t>
-  </si>
-  <si>
     <t>gRNA-dCAS9_handle</t>
   </si>
   <si>
     <t>pOP7</t>
   </si>
   <si>
-    <t>production of gRNA</t>
-  </si>
-  <si>
     <t>pOP8</t>
   </si>
   <si>
-    <t>reporter plasmid</t>
-  </si>
-  <si>
     <t>pOP9</t>
   </si>
   <si>
@@ -882,9 +852,6 @@
   </si>
   <si>
     <t>p106-Nar</t>
-  </si>
-  <si>
-    <t>Naringenin genes cluster plasmid</t>
   </si>
   <si>
     <t>pBbE2k-pTet-RFP</t>
@@ -1743,7 +1710,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2266,13 +2233,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="18" max="18" width="14.5" customWidth="1"/>
     <col min="19" max="19" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2304,7 +2271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="32.1" customHeight="1">
+    <row r="2" spans="1:21" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2361,7 +2328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="17.100000000000001">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -2437,13 +2404,13 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -2466,7 +2433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2522,7 +2489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2551,7 +2518,7 @@
         <v>4089</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -2577,7 +2544,7 @@
         <v>7482</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2591,7 +2558,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -2605,7 +2572,7 @@
         <v>4783</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -2619,7 +2586,7 @@
         <v>7542</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -2633,7 +2600,7 @@
         <v>7524</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -2647,7 +2614,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -2661,7 +2628,7 @@
         <v>5547</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -2675,7 +2642,7 @@
         <v>5589</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -2689,7 +2656,7 @@
         <v>6483</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -2703,7 +2670,7 @@
         <v>6525</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -2717,7 +2684,7 @@
         <v>5728</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -2731,7 +2698,7 @@
         <v>5770</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -2745,7 +2712,7 @@
         <v>6238</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -2759,7 +2726,7 @@
         <v>4130</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -2773,7 +2740,7 @@
         <v>6567</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -2787,7 +2754,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -2801,7 +2768,7 @@
         <v>7663</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -2815,7 +2782,7 @@
         <v>7705</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -2829,7 +2796,7 @@
         <v>8418</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -2843,7 +2810,7 @@
         <v>8460</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -2857,7 +2824,7 @@
         <v>9507</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -2871,7 +2838,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -2885,7 +2852,7 @@
         <v>7723</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>111</v>
       </c>
@@ -2899,7 +2866,7 @@
         <v>3898</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -2913,7 +2880,7 @@
         <v>7795</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -2924,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -2938,7 +2905,7 @@
         <v>7264</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -2952,7 +2919,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -2977,7 +2944,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2985,919 +2952,861 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA655E4-5562-BC4E-9985-C3415C477947}">
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="6.25" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="6.125" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="7.625" customWidth="1"/>
-    <col min="11" max="11" width="8.875" customWidth="1"/>
-    <col min="12" max="12" width="7.75" customWidth="1"/>
-    <col min="13" max="13" width="2" customWidth="1"/>
-    <col min="14" max="14" width="3.25" customWidth="1"/>
-    <col min="15" max="15" width="2.625" customWidth="1"/>
-    <col min="16" max="16" width="2" customWidth="1"/>
+    <col min="2" max="2" width="6.19921875" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="6.09765625" customWidth="1"/>
+    <col min="8" max="8" width="9.8984375" customWidth="1"/>
+    <col min="9" max="9" width="7.59765625" customWidth="1"/>
+    <col min="10" max="10" width="8.8984375" customWidth="1"/>
+    <col min="11" max="11" width="7.69921875" customWidth="1"/>
+    <col min="12" max="12" width="2" customWidth="1"/>
+    <col min="13" max="13" width="3.19921875" customWidth="1"/>
+    <col min="14" max="14" width="2.59765625" customWidth="1"/>
+    <col min="15" max="15" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="9"/>
+      <c r="S2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="15.75">
-      <c r="A3" s="6" t="s">
+      <c r="C3" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="6"/>
       <c r="D3" t="s">
         <v>130</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>131</v>
       </c>
-      <c r="G3" t="s">
+      <c r="P3" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3">
+        <f>LEN(P3)</f>
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="R3">
-        <f>LEN(Q3)</f>
-        <v>4407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="15.75">
-      <c r="A4" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
       <c r="D4" t="s">
         <v>130</v>
       </c>
-      <c r="E4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
+        <v>134</v>
+      </c>
+      <c r="P4" t="s">
         <v>135</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q43" si="0">LEN(P4)</f>
+        <v>5213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R4">
-        <f t="shared" ref="R4:R43" si="0">LEN(Q4)</f>
-        <v>5213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15.75">
-      <c r="A5" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="D5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" t="s">
-        <v>135</v>
-      </c>
-      <c r="R5">
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
       <c r="D6" t="s">
         <v>130</v>
       </c>
-      <c r="E6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" t="s">
-        <v>139</v>
-      </c>
-      <c r="R6">
+      <c r="F6" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="6"/>
       <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
         <v>141</v>
       </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
       <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" t="s">
         <v>142</v>
       </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>143</v>
-      </c>
-      <c r="R7">
+      <c r="Q7">
         <f t="shared" si="0"/>
         <v>2841</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.75">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="6"/>
       <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" t="s">
         <v>145</v>
       </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>146</v>
-      </c>
-      <c r="R8">
+      <c r="Q8">
         <f t="shared" si="0"/>
         <v>2831</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="6"/>
       <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" t="s">
         <v>148</v>
       </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>149</v>
-      </c>
-      <c r="R9">
+      <c r="Q9">
         <f t="shared" si="0"/>
         <v>2723</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="6"/>
       <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" t="s">
         <v>151</v>
       </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>152</v>
-      </c>
-      <c r="R10">
+      <c r="Q10">
         <f t="shared" si="0"/>
         <v>2545</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>141</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" t="s">
         <v>154</v>
       </c>
-      <c r="F11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>155</v>
-      </c>
-      <c r="R11">
+      <c r="Q11">
         <f t="shared" si="0"/>
         <v>2848</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" t="s">
         <v>156</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>141</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" t="s">
         <v>157</v>
       </c>
-      <c r="F12" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>158</v>
-      </c>
-      <c r="R12">
+      <c r="Q12">
         <f t="shared" si="0"/>
         <v>2848</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="6"/>
       <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" t="s">
         <v>160</v>
       </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>161</v>
-      </c>
-      <c r="R13">
+      <c r="Q13">
         <f t="shared" si="0"/>
         <v>2776</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" t="s">
         <v>162</v>
       </c>
       <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" t="s">
         <v>163</v>
       </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>164</v>
-      </c>
-      <c r="R14">
+      <c r="Q14">
         <f t="shared" si="0"/>
         <v>2721</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>165</v>
-      </c>
-      <c r="R15">
+        <v>164</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" t="s">
         <v>166</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="D16" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" t="s">
-        <v>167</v>
-      </c>
-      <c r="R16">
+      <c r="Q16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.75">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" t="s">
         <v>168</v>
       </c>
-      <c r="B17" s="6"/>
       <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="P17" t="s">
         <v>169</v>
       </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>170</v>
-      </c>
-      <c r="R17">
+      <c r="Q17">
         <f t="shared" si="0"/>
         <v>2977</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15.75">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" t="s">
         <v>171</v>
       </c>
       <c r="D18" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" t="s">
-        <v>167</v>
-      </c>
-      <c r="R18">
+        <v>166</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="D19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>174</v>
-      </c>
-      <c r="R19">
+      <c r="Q19">
         <f t="shared" si="0"/>
         <v>2747</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.75">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B20" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="C20" t="s">
+        <v>144</v>
+      </c>
       <c r="D20" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" t="s">
         <v>25</v>
       </c>
-      <c r="R20">
+      <c r="Q20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.75">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>176</v>
-      </c>
-      <c r="R21">
+        <v>175</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15.75">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" t="s">
         <v>177</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>178</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>179</v>
       </c>
-      <c r="E22" t="s">
-        <v>180</v>
-      </c>
       <c r="G22" t="s">
-        <v>181</v>
-      </c>
-      <c r="H22" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22">
+        <v>23</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>182</v>
-      </c>
-      <c r="B23" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="C23" t="s">
+        <v>177</v>
       </c>
       <c r="D23" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" t="s">
         <v>179</v>
       </c>
-      <c r="E23" t="s">
-        <v>157</v>
-      </c>
       <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s">
+        <v>156</v>
+      </c>
+      <c r="J23" t="s">
         <v>181</v>
       </c>
-      <c r="H23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" t="s">
-        <v>157</v>
-      </c>
       <c r="K23" t="s">
-        <v>184</v>
-      </c>
-      <c r="L23" t="s">
-        <v>23</v>
-      </c>
-      <c r="R23">
+        <v>23</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15.75">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B24" t="s">
-        <v>186</v>
+        <v>182</v>
+      </c>
+      <c r="C24" t="s">
+        <v>177</v>
       </c>
       <c r="D24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" t="s">
         <v>179</v>
       </c>
-      <c r="E24" t="s">
-        <v>157</v>
-      </c>
       <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" t="s">
+        <v>156</v>
+      </c>
+      <c r="J24" t="s">
         <v>181</v>
       </c>
-      <c r="H24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" t="s">
-        <v>157</v>
-      </c>
       <c r="K24" t="s">
-        <v>184</v>
-      </c>
-      <c r="L24" t="s">
-        <v>132</v>
-      </c>
-      <c r="R24">
+        <v>131</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.75">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" t="s">
-        <v>188</v>
+        <v>183</v>
+      </c>
+      <c r="C25" t="s">
+        <v>150</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" t="s">
-        <v>189</v>
+        <v>184</v>
+      </c>
+      <c r="F25" t="s">
+        <v>185</v>
       </c>
       <c r="G25" t="s">
-        <v>190</v>
-      </c>
-      <c r="H25" t="s">
-        <v>23</v>
-      </c>
-      <c r="R25">
+        <v>23</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B26" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+      <c r="C26" t="s">
+        <v>150</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" t="s">
         <v>20</v>
       </c>
+      <c r="F26" t="s">
+        <v>185</v>
+      </c>
       <c r="G26" t="s">
-        <v>190</v>
-      </c>
-      <c r="H26" t="s">
-        <v>23</v>
-      </c>
-      <c r="R26">
+        <v>23</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15.75">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B27" t="s">
-        <v>193</v>
+        <v>187</v>
+      </c>
+      <c r="C27" t="s">
+        <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" t="s">
-        <v>189</v>
+        <v>184</v>
+      </c>
+      <c r="F27" t="s">
+        <v>188</v>
       </c>
       <c r="G27" t="s">
-        <v>194</v>
-      </c>
-      <c r="H27" t="s">
-        <v>23</v>
-      </c>
-      <c r="R27">
+        <v>23</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.75">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B28" t="s">
-        <v>196</v>
+        <v>189</v>
+      </c>
+      <c r="C28" t="s">
+        <v>150</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" t="s">
-        <v>189</v>
+        <v>184</v>
+      </c>
+      <c r="F28" t="s">
+        <v>190</v>
       </c>
       <c r="G28" t="s">
-        <v>197</v>
-      </c>
-      <c r="H28" t="s">
-        <v>23</v>
-      </c>
-      <c r="R28">
+        <v>23</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.75">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B29" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+      <c r="C29" t="s">
+        <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29" t="s">
         <v>20</v>
       </c>
+      <c r="F29" t="s">
+        <v>188</v>
+      </c>
       <c r="G29" t="s">
-        <v>194</v>
-      </c>
-      <c r="H29" t="s">
-        <v>23</v>
-      </c>
-      <c r="R29">
+        <v>23</v>
+      </c>
+      <c r="Q29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15.75">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>199</v>
-      </c>
-      <c r="B30" t="s">
-        <v>200</v>
+        <v>192</v>
+      </c>
+      <c r="C30" t="s">
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
-      </c>
-      <c r="E30" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="F30" t="s">
+        <v>193</v>
       </c>
       <c r="G30" t="s">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="H30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" t="s">
         <v>42</v>
       </c>
+      <c r="J30" t="s">
+        <v>37</v>
+      </c>
       <c r="K30" t="s">
-        <v>37</v>
-      </c>
-      <c r="L30" t="s">
-        <v>23</v>
-      </c>
-      <c r="R30">
+        <v>23</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15.75">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B31" t="s">
-        <v>203</v>
+        <v>194</v>
+      </c>
+      <c r="C31" t="s">
+        <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="F31" t="s">
+        <v>193</v>
       </c>
       <c r="G31" t="s">
-        <v>201</v>
-      </c>
-      <c r="H31" t="s">
-        <v>23</v>
-      </c>
-      <c r="R31">
+        <v>23</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15.75">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B32" t="s">
-        <v>205</v>
+        <v>195</v>
+      </c>
+      <c r="C32" t="s">
+        <v>144</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
-      </c>
-      <c r="E32" t="s">
         <v>42</v>
       </c>
+      <c r="F32" t="s">
+        <v>37</v>
+      </c>
       <c r="G32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32">
+        <v>23</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15.75">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B33" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="C33" t="s">
+        <v>197</v>
       </c>
       <c r="D33" t="s">
-        <v>207</v>
-      </c>
-      <c r="E33" t="s">
         <v>42</v>
       </c>
-      <c r="G33" t="s">
-        <v>167</v>
-      </c>
-      <c r="R33">
+      <c r="F33" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.75">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>208</v>
-      </c>
-      <c r="B34" t="s">
-        <v>209</v>
-      </c>
-      <c r="R34">
+        <v>198</v>
+      </c>
+      <c r="Q34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.75">
-      <c r="R35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.75">
-      <c r="R36">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15.75">
-      <c r="R37">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15.75">
-      <c r="R38">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15.75">
-      <c r="R39">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="15.75">
-      <c r="R40">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15.75">
-      <c r="R41">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="15.75">
-      <c r="R42">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15.75">
-      <c r="R43">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3910,7 +3819,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3921,17 +3830,18 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A33" sqref="A30:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="4.75" customWidth="1"/>
+    <col min="1" max="1" width="32.69921875" customWidth="1"/>
+    <col min="13" max="13" width="4.69921875" customWidth="1"/>
     <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="2.125" customWidth="1"/>
+    <col min="15" max="15" width="2.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3963,7 +3873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -4020,18 +3930,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -4040,24 +3950,24 @@
         <v>23</v>
       </c>
       <c r="S3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F4" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -4066,7 +3976,7 @@
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="J4" t="s">
         <v>37</v>
@@ -4075,128 +3985,128 @@
         <v>23</v>
       </c>
       <c r="S4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
       </c>
       <c r="S5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I6" t="s">
         <v>211</v>
       </c>
-      <c r="E6" t="s">
+      <c r="J6" t="s">
         <v>212</v>
       </c>
-      <c r="F6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I6" t="s">
-        <v>222</v>
-      </c>
-      <c r="J6" t="s">
-        <v>223</v>
-      </c>
       <c r="K6" t="s">
         <v>23</v>
       </c>
       <c r="S6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
-        <v>224</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
       </c>
       <c r="S7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F8" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
       </c>
       <c r="S8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" t="s">
         <v>212</v>
-      </c>
-      <c r="F9" t="s">
-        <v>223</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
@@ -4205,70 +4115,70 @@
         <v>42</v>
       </c>
       <c r="I9" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" t="s">
         <v>216</v>
       </c>
-      <c r="J9" t="s">
-        <v>231</v>
-      </c>
-      <c r="K9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" t="s">
-        <v>233</v>
-      </c>
-      <c r="D10" t="s">
-        <v>234</v>
-      </c>
-      <c r="E10" t="s">
-        <v>216</v>
-      </c>
-      <c r="F10" t="s">
-        <v>235</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C11" t="s">
-        <v>237</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" t="s">
         <v>230</v>
-      </c>
-      <c r="E11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" t="s">
-        <v>227</v>
-      </c>
-      <c r="E12" t="s">
-        <v>212</v>
-      </c>
-      <c r="F12" t="s">
-        <v>241</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
@@ -4277,7 +4187,7 @@
         <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="J12" t="s">
         <v>37</v>
@@ -4286,30 +4196,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C13" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D13" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E13" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F13" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G13" t="s">
         <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I13" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="J13" t="s">
         <v>37</v>
@@ -4318,58 +4228,58 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C14" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D14" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E14" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F14" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C15" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F15" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D16" t="s">
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F16" t="s">
         <v>37</v>
@@ -4378,198 +4288,198 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E17" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F17" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="G17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E18" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F18" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E19" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" t="s">
         <v>212</v>
       </c>
-      <c r="F19" t="s">
-        <v>223</v>
-      </c>
       <c r="G19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C20" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D20" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E20" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" t="s">
+        <v>236</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" t="s">
+        <v>201</v>
+      </c>
+      <c r="F21" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" t="s">
+        <v>243</v>
+      </c>
+      <c r="E22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F22" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" t="s">
         <v>212</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" t="s">
+        <v>222</v>
+      </c>
+      <c r="D24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" t="s">
+        <v>201</v>
+      </c>
+      <c r="F24" t="s">
+        <v>246</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>247</v>
       </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>252</v>
-      </c>
-      <c r="C21" t="s">
-        <v>233</v>
-      </c>
-      <c r="D21" t="s">
-        <v>211</v>
-      </c>
-      <c r="E21" t="s">
-        <v>212</v>
-      </c>
-      <c r="F21" t="s">
-        <v>249</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C22" t="s">
-        <v>233</v>
-      </c>
-      <c r="D22" t="s">
-        <v>254</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" t="s">
         <v>216</v>
       </c>
-      <c r="F22" t="s">
-        <v>249</v>
-      </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" t="s">
-        <v>233</v>
-      </c>
-      <c r="D23" t="s">
-        <v>211</v>
-      </c>
-      <c r="E23" t="s">
-        <v>212</v>
-      </c>
-      <c r="F23" t="s">
-        <v>223</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>256</v>
-      </c>
-      <c r="C24" t="s">
-        <v>233</v>
-      </c>
-      <c r="D24" t="s">
-        <v>227</v>
-      </c>
-      <c r="E24" t="s">
-        <v>212</v>
-      </c>
-      <c r="F24" t="s">
-        <v>257</v>
-      </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" t="s">
-        <v>215</v>
-      </c>
-      <c r="D25" t="s">
-        <v>227</v>
-      </c>
       <c r="E25" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F25" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="E26" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -4578,50 +4488,50 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="E27" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F27" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E28" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F28" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
         <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="I28" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="J28" t="s">
         <v>22</v>
@@ -4630,172 +4540,172 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C29" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D29" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E29" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F29" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="H29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I29" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="J29" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C30" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F30" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="H30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I30" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="J30" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="K30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C31" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D31" t="s">
         <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F31" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="H31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I31" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="J31" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="K31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C32" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D32" t="s">
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F32" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="H32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I32" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="J32" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="K32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C33" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E33" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F33" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="H33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I33" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="J33" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="K33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E34" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F34" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="H34" t="s">
         <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="J34" t="s">
         <v>22</v>
@@ -4804,30 +4714,30 @@
         <v>23</v>
       </c>
       <c r="S34" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C35" t="s">
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E35" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F35" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="H35" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="I35" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="J35" t="s">
         <v>22</v>
@@ -4836,7 +4746,7 @@
         <v>23</v>
       </c>
       <c r="S35" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4857,19 +4767,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E5E124-0341-4F40-B7EC-662A3FF9AE8B}">
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="2" max="2" width="7.69921875" customWidth="1"/>
     <col min="13" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="6.25" customWidth="1"/>
-    <col min="15" max="15" width="1.375" customWidth="1"/>
+    <col min="14" max="14" width="6.19921875" customWidth="1"/>
+    <col min="15" max="15" width="1.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4901,7 +4811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -4958,31 +4868,31 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="4" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>25</v>
@@ -4991,105 +4901,105 @@
         <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="Q3">
         <v>4968</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F4" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="P4" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="Q4">
         <v>4836</v>
       </c>
       <c r="R4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" t="s">
         <v>273</v>
       </c>
-      <c r="F5" t="s">
-        <v>284</v>
-      </c>
       <c r="G5" t="s">
         <v>23</v>
       </c>
       <c r="P5" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Q5">
         <v>3204</v>
       </c>
       <c r="R5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="E6" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F6" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
       </c>
       <c r="P6" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="Q6">
         <v>4527</v>
       </c>
       <c r="R6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5128,9 +5038,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -5154,88 +5064,88 @@
         <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="K8" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="P8" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="Q8">
         <v>5488</v>
       </c>
       <c r="R8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D9" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E9" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F9" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="G9" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="P9" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="Q9">
         <v>6701</v>
       </c>
       <c r="R9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D10" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E10" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F10" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G10" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="P10" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="Q10">
         <v>6017</v>
       </c>
       <c r="R10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
@@ -5247,36 +5157,36 @@
         <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="I11" t="s">
         <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="K11" t="s">
         <v>23</v>
       </c>
       <c r="P11" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="Q11">
         <v>4930</v>
       </c>
       <c r="R11" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -5288,36 +5198,36 @@
         <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="I12" t="s">
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="K12" t="s">
         <v>23</v>
       </c>
       <c r="P12" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="Q12">
         <v>4910</v>
       </c>
       <c r="R12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -5329,36 +5239,36 @@
         <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="I13" t="s">
         <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="K13" t="s">
         <v>23</v>
       </c>
       <c r="P13" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="Q13">
         <v>4910</v>
       </c>
       <c r="R13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.75">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -5376,30 +5286,30 @@
         <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="K14" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="P14" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="Q14">
         <v>5508</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -5417,59 +5327,59 @@
         <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K15" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="P15" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="Q15">
         <v>5883</v>
       </c>
       <c r="R15" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C16" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D16" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E16" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F16" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="G16" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="P16" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="Q16">
         <v>7070</v>
       </c>
       <c r="R16" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -5481,7 +5391,7 @@
         <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I17" t="s">
         <v>21</v>
@@ -5490,68 +5400,68 @@
         <v>37</v>
       </c>
       <c r="K17" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="L17" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="M17" t="s">
         <v>21</v>
       </c>
       <c r="N17" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="O17" t="s">
         <v>23</v>
       </c>
       <c r="P17" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="Q17">
         <v>5698</v>
       </c>
       <c r="R17" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C18" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D18" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E18" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F18" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="G18" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="P18" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="Q18">
         <v>6845</v>
       </c>
       <c r="R18" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -5563,18 +5473,18 @@
         <v>23</v>
       </c>
       <c r="P19" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="Q19">
         <v>4040</v>
       </c>
       <c r="R19" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -5592,24 +5502,24 @@
         <v>23</v>
       </c>
       <c r="P20" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="Q20">
         <v>4038</v>
       </c>
       <c r="R20" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
         <v>21</v>
@@ -5621,24 +5531,24 @@
         <v>23</v>
       </c>
       <c r="P21" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="Q21">
         <v>4038</v>
       </c>
       <c r="R21" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E22" t="s">
         <v>21</v>
@@ -5650,24 +5560,24 @@
         <v>23</v>
       </c>
       <c r="P22" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="Q22">
         <v>4038</v>
       </c>
       <c r="R22" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -5679,48 +5589,48 @@
         <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I23" t="s">
         <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="K23" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="L23" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="M23" t="s">
         <v>21</v>
       </c>
       <c r="N23" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="O23" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="P23" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="Q23">
         <v>5904</v>
       </c>
       <c r="R23" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="15.75">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C24" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="D24" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E24" t="s">
         <v>21</v>
@@ -5732,7 +5642,7 @@
         <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I24" t="s">
         <v>21</v>
@@ -5744,24 +5654,24 @@
         <v>23</v>
       </c>
       <c r="P24" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="Q24">
         <v>4979</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C25" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
@@ -5773,82 +5683,82 @@
         <v>23</v>
       </c>
       <c r="P25" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="Q25">
         <v>3045</v>
       </c>
       <c r="R25" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C26" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D26" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F26" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="G26" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H26" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="J26" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="K26" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="P26" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="Q26">
         <v>7333</v>
       </c>
       <c r="R26" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C27" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D27" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F27" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G27" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="P27" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="Q27">
         <v>5713</v>
       </c>
       <c r="R27" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C28" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
@@ -5857,24 +5767,24 @@
         <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="G28" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="P28" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="Q28">
         <v>6623</v>
       </c>
       <c r="R28" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
@@ -5892,36 +5802,36 @@
         <v>23</v>
       </c>
       <c r="H29" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="I29" t="s">
         <v>21</v>
       </c>
       <c r="J29" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="K29" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="P29" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="Q29">
         <v>4219</v>
       </c>
       <c r="R29" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
@@ -5933,30 +5843,30 @@
         <v>23</v>
       </c>
       <c r="H30" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="I30" t="s">
         <v>21</v>
       </c>
       <c r="J30" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="K30" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="P30" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="Q30">
         <v>4239</v>
       </c>
       <c r="R30" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C31" t="s">
         <v>19</v>
@@ -5974,7 +5884,7 @@
         <v>23</v>
       </c>
       <c r="H31" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="I31" t="s">
         <v>21</v>
@@ -5986,27 +5896,27 @@
         <v>23</v>
       </c>
       <c r="O31" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="P31" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="Q31">
         <v>4095</v>
       </c>
       <c r="R31" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
@@ -6018,7 +5928,7 @@
         <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="I32" t="s">
         <v>21</v>
@@ -6030,24 +5940,24 @@
         <v>23</v>
       </c>
       <c r="P32" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="Q32">
         <v>4051</v>
       </c>
       <c r="R32" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C33" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="D33" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
@@ -6059,21 +5969,21 @@
         <v>23</v>
       </c>
       <c r="P33" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="Q33">
         <v>2970</v>
       </c>
       <c r="R33" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C34" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="D34" t="s">
         <v>20</v>
@@ -6088,24 +5998,24 @@
         <v>23</v>
       </c>
       <c r="P34" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="Q34">
         <v>3014</v>
       </c>
       <c r="R34" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C35" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E35" t="s">
         <v>21</v>
@@ -6117,24 +6027,24 @@
         <v>23</v>
       </c>
       <c r="P35" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="Q35">
         <v>2968</v>
       </c>
       <c r="R35" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C36" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D36" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
@@ -6146,103 +6056,103 @@
         <v>23</v>
       </c>
       <c r="H36" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="I36" t="s">
         <v>21</v>
       </c>
       <c r="J36" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="K36" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="P36" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="Q36">
         <v>6531</v>
       </c>
       <c r="R36" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C37" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="D37" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F37" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="G37" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="P37" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="Q37">
         <v>5314</v>
       </c>
       <c r="R37" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C38" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D38" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E38" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="G38" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="P38" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="Q38">
         <v>6311</v>
       </c>
       <c r="R38" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C39" t="s">
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E39" t="s">
         <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G39" t="s">
         <v>23</v>
       </c>
       <c r="H39" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I39" t="s">
         <v>21</v>
@@ -6254,24 +6164,24 @@
         <v>23</v>
       </c>
       <c r="P39" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="Q39">
         <v>3911</v>
       </c>
       <c r="R39" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="C40" t="s">
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E40" t="s">
         <v>21</v>
@@ -6283,30 +6193,30 @@
         <v>23</v>
       </c>
       <c r="H40" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="I40" t="s">
         <v>21</v>
       </c>
       <c r="J40" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="K40" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="P40" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="Q40">
         <v>4932</v>
       </c>
       <c r="R40" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C41" t="s">
         <v>19</v>
@@ -6315,7 +6225,7 @@
         <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -6324,36 +6234,36 @@
         <v>23</v>
       </c>
       <c r="H41" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="I41" t="s">
         <v>21</v>
       </c>
       <c r="J41" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="K41" t="s">
         <v>23</v>
       </c>
       <c r="P41" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="Q41">
         <v>4097</v>
       </c>
       <c r="R41" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C42" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="D42" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E42" t="s">
         <v>21</v>
@@ -6365,7 +6275,7 @@
         <v>23</v>
       </c>
       <c r="H42" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I42" t="s">
         <v>21</v>
@@ -6377,24 +6287,24 @@
         <v>23</v>
       </c>
       <c r="P42" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="Q42">
         <v>4100</v>
       </c>
       <c r="R42" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C43" t="s">
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E43" t="s">
         <v>21</v>
@@ -6406,7 +6316,7 @@
         <v>23</v>
       </c>
       <c r="H43" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I43" t="s">
         <v>21</v>
@@ -6418,82 +6328,82 @@
         <v>23</v>
       </c>
       <c r="P43" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="Q43">
         <v>4074</v>
       </c>
       <c r="R43" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="C44" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D44" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E44" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F44" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G44" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="P44" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="Q44">
         <v>6956</v>
       </c>
       <c r="R44" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C45" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D45" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E45" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F45" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="G45" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="P45" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="Q45">
         <v>7010</v>
       </c>
       <c r="R45" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C46" t="s">
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E46" t="s">
         <v>21</v>
@@ -6505,531 +6415,531 @@
         <v>23</v>
       </c>
       <c r="H46" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
       </c>
       <c r="J46" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="K46" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="P46" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="Q46">
         <v>5299</v>
       </c>
       <c r="R46" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="C47" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D47" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E47" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F47" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="G47" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="P47" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="Q47">
         <v>7307</v>
       </c>
       <c r="R47" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C48" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D48" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E48" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F48" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="G48" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="P48" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="Q48">
         <v>6953</v>
       </c>
       <c r="R48" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="C49" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D49" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E49" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F49" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="G49" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="P49" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="Q49">
         <v>7007</v>
       </c>
       <c r="R49" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="C50" t="s">
         <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G50" t="s">
         <v>23</v>
       </c>
       <c r="P50" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="Q50">
         <v>2947</v>
       </c>
       <c r="R50" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C51" t="s">
         <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G51" t="s">
         <v>23</v>
       </c>
       <c r="P51" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="Q51">
         <v>2970</v>
       </c>
       <c r="R51" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="H52" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="I52" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="J52" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="K52" t="s">
         <v>23</v>
       </c>
       <c r="P52" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="Q52">
         <v>3490</v>
       </c>
       <c r="R52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D53" t="s">
         <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="P53" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="Q53">
         <v>3322</v>
       </c>
       <c r="R53" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F54" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G54" t="s">
         <v>23</v>
       </c>
       <c r="P54" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="Q54">
         <v>3739</v>
       </c>
       <c r="R54" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D55" t="s">
         <v>20</v>
       </c>
       <c r="E55" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F55" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G55" t="s">
         <v>23</v>
       </c>
       <c r="P55" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="Q55">
         <v>3703</v>
       </c>
       <c r="R55" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E56" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F56" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G56" t="s">
         <v>23</v>
       </c>
       <c r="H56" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="J56" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="K56" t="s">
         <v>23</v>
       </c>
       <c r="P56" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="Q56">
         <v>5547</v>
       </c>
       <c r="R56" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E57" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G57" t="s">
         <v>23</v>
       </c>
       <c r="H57" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="J57" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="K57" t="s">
         <v>23</v>
       </c>
       <c r="P57" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="Q57">
         <v>4929</v>
       </c>
       <c r="R57" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E58" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G58" t="s">
         <v>23</v>
       </c>
       <c r="H58" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="J58" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="K58" t="s">
         <v>23</v>
       </c>
       <c r="P58" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="Q58">
         <v>4914</v>
       </c>
       <c r="R58" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E59" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F59" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G59" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="P59" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="Q59">
         <v>3810</v>
       </c>
       <c r="R59" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D60" t="s">
         <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F60" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G60" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="P60" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="Q60">
         <v>3810</v>
       </c>
       <c r="R60" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E61" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F61" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G61" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H61" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="J61" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="K61" t="s">
         <v>23</v>
       </c>
       <c r="P61" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="Q61">
         <v>5754</v>
       </c>
       <c r="R61" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="C62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D62" t="s">
         <v>20</v>
       </c>
       <c r="E62" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F62" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G62" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H62" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="J62" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="K62" t="s">
         <v>23</v>
       </c>
       <c r="P62" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="Q62">
         <v>5754</v>
       </c>
       <c r="R62" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -7060,11 +6970,11 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -7078,7 +6988,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/E6-04_plasmid_list.xlsx
+++ b/E6-04_plasmid_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\School Stuff\Sem 7\FYP\EBase + PBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507A3810-380F-499D-A908-005A4D042EB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4019AAA4-88A7-407F-9346-12FFB718565E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{58E34AC4-5EED-F74C-B80A-9F20B709F1A2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{58E34AC4-5EED-F74C-B80A-9F20B709F1A2}"/>
   </bookViews>
   <sheets>
     <sheet name="FORMAT&amp; An example" sheetId="1" r:id="rId1"/>
@@ -2954,7 +2954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA655E4-5562-BC4E-9985-C3415C477947}">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -4767,8 +4767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E5E124-0341-4F40-B7EC-662A3FF9AE8B}">
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
